--- a/app/config/tables/MiscMonthlyInspectionContainerForSPCCP/forms/MiscMonthlyInspectionContainerForSPCCP/MiscMonthlyInspectionContainerForSPCCP.xlsx
+++ b/app/config/tables/MiscMonthlyInspectionContainerForSPCCP/forms/MiscMonthlyInspectionContainerForSPCCP/MiscMonthlyInspectionContainerForSPCCP.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="110">
-  <si>
-    <t>branch_label</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="112">
   <si>
     <t>clause</t>
   </si>
@@ -26,19 +23,28 @@
     <t>choice_list_name</t>
   </si>
   <si>
-    <t>condition</t>
+    <t>branch_label</t>
   </si>
   <si>
-    <t>data_value</t>
+    <t>type</t>
   </si>
   <si>
     <t>display.text</t>
   </si>
   <si>
-    <t>display.image</t>
+    <t>comments</t>
   </si>
   <si>
-    <t>type</t>
+    <t>do section survey</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>goto _finalize</t>
+  </si>
+  <si>
+    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
   </si>
   <si>
     <t>values_list</t>
@@ -56,31 +62,31 @@
     <t>templatePath</t>
   </si>
   <si>
+    <t>data_value</t>
+  </si>
+  <si>
     <t>calculation</t>
   </si>
   <si>
     <t>display.hint</t>
   </si>
   <si>
+    <t>display.image</t>
+  </si>
+  <si>
     <t>required</t>
+  </si>
+  <si>
+    <t>begin screen</t>
   </si>
   <si>
     <t>container_locations</t>
   </si>
   <si>
-    <t>begin screen</t>
+    <t>select_one_dropdown</t>
   </si>
   <si>
     <t>Periodic Inspections- platform 5 South of track 4</t>
-  </si>
-  <si>
-    <t>select_one_dropdown</t>
-  </si>
-  <si>
-    <t>T5 (S) bottom</t>
-  </si>
-  <si>
-    <t>T5 (S) bottom platform 02703</t>
   </si>
   <si>
     <t>container</t>
@@ -89,31 +95,13 @@
     <t>Container Location</t>
   </si>
   <si>
-    <t>T6 in front of platform</t>
-  </si>
-  <si>
     <t>custom_select_dropdown.handlebars</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>T6 (S) top platform # 04053</t>
-  </si>
-  <si>
-    <t>do section survey</t>
-  </si>
-  <si>
-    <t>goto _finalize</t>
-  </si>
-  <si>
-    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+    <t>T5 (S) bottom</t>
   </si>
   <si>
     <t>true</t>
-  </si>
-  <si>
-    <t>NW end of PM- Forklift access area</t>
   </si>
   <si>
     <t>string</t>
@@ -122,16 +110,37 @@
     <t>capacity</t>
   </si>
   <si>
+    <t>Capacity</t>
+  </si>
+  <si>
     <t>string_input_type.handlebars</t>
+  </si>
+  <si>
+    <t>T5 (S) bottom platform 02703</t>
+  </si>
+  <si>
+    <t>T6 in front of platform</t>
+  </si>
+  <si>
+    <t>T6 (S) top platform # 04053</t>
+  </si>
+  <si>
+    <t>NW end of PM- Forklift access area</t>
   </si>
   <si>
     <t>Forklift Access Area (columns 22- 29) #01259</t>
   </si>
   <si>
+    <t>columns 35 &amp; 36</t>
+  </si>
+  <si>
+    <t>Oil Filter Totes</t>
+  </si>
+  <si>
     <t>contents</t>
   </si>
   <si>
-    <t>columns 35 &amp; 36</t>
+    <t>Contents</t>
   </si>
   <si>
     <t>select_one</t>
@@ -144,9 +153,6 @@
   </si>
   <si>
     <t>Spillage or Staining</t>
-  </si>
-  <si>
-    <t>Oil Filter Totes</t>
   </si>
   <si>
     <t>Wheel Truing Area</t>
@@ -182,31 +188,19 @@
     <t>end if</t>
   </si>
   <si>
-    <t>spillage_staining_custom</t>
-  </si>
-  <si>
     <t>container_damaged_leaking</t>
   </si>
   <si>
     <t>Container Damaged or Leaking</t>
   </si>
   <si>
+    <t>data('container_damaged_leaking') == 'YES'</t>
+  </si>
+  <si>
     <t>Report as Emergency</t>
   </si>
   <si>
-    <t>data('container_damaged_leaking') == 'YES'</t>
-  </si>
-  <si>
     <t>container_damaged_leaking_fu</t>
-  </si>
-  <si>
-    <t>Repair Needed</t>
-  </si>
-  <si>
-    <t>container_damaged_leaking_custom</t>
-  </si>
-  <si>
-    <t>Replacement Needed</t>
   </si>
   <si>
     <t>unstable_surface</t>
@@ -215,13 +209,16 @@
     <t>Unstable Surface</t>
   </si>
   <si>
+    <t>Repair Needed</t>
+  </si>
+  <si>
+    <t>Replacement Needed</t>
+  </si>
+  <si>
     <t>data('unstable_surface') == 'YES'</t>
   </si>
   <si>
     <t>unstable_surface_fu</t>
-  </si>
-  <si>
-    <t>unstable_surface_custom</t>
   </si>
   <si>
     <t>access_blocked_inspection</t>
@@ -236,13 +233,10 @@
     <t>access_blocked_inspection_fu</t>
   </si>
   <si>
-    <t>access_blocked_inspection_custom</t>
-  </si>
-  <si>
     <t>guage_doesnot_function</t>
   </si>
   <si>
-    <t>Guage Does Not Function</t>
+    <t>Gauge Does Not Function</t>
   </si>
   <si>
     <t>data('guage_doesnot_function') == 'YES'</t>
@@ -251,16 +245,10 @@
     <t>guage_doesnot_function_fu</t>
   </si>
   <si>
-    <t>guage_doesnot_function_custom</t>
-  </si>
-  <si>
     <t>label_sign_missing</t>
   </si>
   <si>
     <t>Labels/Signs Missing</t>
-  </si>
-  <si>
-    <t>setting_name</t>
   </si>
   <si>
     <t>data('label_sign_missing') == 'YES'</t>
@@ -269,19 +257,10 @@
     <t>label_sign_missing_fu</t>
   </si>
   <si>
-    <t>label_sign_missing_custom</t>
+    <t>setting_name</t>
   </si>
   <si>
     <t>secondary_containment_inadequate</t>
-  </si>
-  <si>
-    <t>data('secondary_containment_inadequate') == 'YES'</t>
-  </si>
-  <si>
-    <t>secondary_containment_inadequate_fu</t>
-  </si>
-  <si>
-    <t>secondary_containment_inadequate_custom</t>
   </si>
   <si>
     <t>value</t>
@@ -293,16 +272,22 @@
     <t>form_id</t>
   </si>
   <si>
+    <t>MiscMonthlyInspectionContainerForSPCCP</t>
+  </si>
+  <si>
+    <t>form_version</t>
+  </si>
+  <si>
+    <t>data('secondary_containment_inadequate') == 'YES'</t>
+  </si>
+  <si>
+    <t>secondary_containment_inadequate_fu</t>
+  </si>
+  <si>
     <t>transf_pump_leaking</t>
   </si>
   <si>
-    <t>MiscMonthlyInspectionContainerForSPCCP</t>
-  </si>
-  <si>
     <t>Transf Pump leaking</t>
-  </si>
-  <si>
-    <t>form_version</t>
   </si>
   <si>
     <t>data('transf_pump_leaking') == 'YES'</t>
@@ -311,7 +296,7 @@
     <t>transf_pump_leaking_fu</t>
   </si>
   <si>
-    <t>transf_pump_leaking_custom</t>
+    <t>table_id</t>
   </si>
   <si>
     <t>spill_material_needed</t>
@@ -323,13 +308,10 @@
     <t>data('spill_material_needed') == 'YES'</t>
   </si>
   <si>
-    <t>table_id</t>
+    <t>survey</t>
   </si>
   <si>
     <t>spill_material_needed_fu</t>
-  </si>
-  <si>
-    <t>survey</t>
   </si>
   <si>
     <t>Monthly Inspection Misc Container</t>
@@ -338,13 +320,37 @@
     <t>instance_name</t>
   </si>
   <si>
-    <t>spill_material_needed_custom</t>
-  </si>
-  <si>
     <t>end screen</t>
   </si>
   <si>
     <t>inspection_id</t>
+  </si>
+  <si>
+    <t>spillage_staining_custom</t>
+  </si>
+  <si>
+    <t>container_damaged_leaking_custom</t>
+  </si>
+  <si>
+    <t>unstable_surface_custom</t>
+  </si>
+  <si>
+    <t>access_blocked_inspection_custom</t>
+  </si>
+  <si>
+    <t>guage_doesnot_function_custom</t>
+  </si>
+  <si>
+    <t>label_sign_missing_custom</t>
+  </si>
+  <si>
+    <t>secondary_containment_inadequate_custom</t>
+  </si>
+  <si>
+    <t>transf_pump_leaking_custom</t>
+  </si>
+  <si>
+    <t>spill_material_needed_custom</t>
   </si>
 </sst>
 </file>
@@ -361,10 +367,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="10.0"/>
       <name val="Arial"/>
@@ -399,19 +405,13 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -420,13 +420,19 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -435,7 +441,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -447,11 +453,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -463,10 +469,10 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -502,39 +508,40 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="15.71"/>
     <col customWidth="1" min="4" max="4" width="98.14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -560,751 +567,651 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>15</v>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="D3" s="9" t="s">
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="6" t="s">
+        <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="D3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="M3" s="4" t="s">
+      <c r="K3" s="3"/>
+      <c r="M3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="D4" s="4" t="s">
-        <v>33</v>
+      <c r="J4" s="11" t="s">
+        <v>32</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="D5" s="5" t="s">
+        <v>29</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>35</v>
+      <c r="F5" s="5" t="s">
+        <v>40</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="D5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>37</v>
+      <c r="G5" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6">
-      <c r="D6" s="4" t="s">
-        <v>39</v>
+      <c r="D6" s="5" t="s">
+        <v>42</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>40</v>
+      <c r="E6" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>41</v>
+      <c r="F6" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="G6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="7" t="s">
-        <v>45</v>
+      <c r="E10" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>46</v>
+      <c r="F10" s="5" t="s">
+        <v>57</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="D8" s="14" t="s">
-        <v>19</v>
+      <c r="G10" s="12" t="s">
+        <v>58</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>51</v>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="6" t="s">
+        <v>47</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>52</v>
+      <c r="C11" s="13" t="s">
+        <v>59</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>25</v>
+      <c r="F12" s="5" t="s">
+        <v>61</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="G12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>35</v>
+      <c r="J12" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="11">
-      <c r="D11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="4" t="s">
+    <row r="13">
+      <c r="B13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>57</v>
+    </row>
+    <row r="14">
+      <c r="D14" s="5" t="s">
+        <v>42</v>
       </c>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="7" t="s">
-        <v>45</v>
+      <c r="E14" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>59</v>
+      <c r="F14" s="5" t="s">
+        <v>62</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="D13" s="14" t="s">
-        <v>19</v>
+      <c r="G14" s="12" t="s">
+        <v>63</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>51</v>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="6" t="s">
+        <v>47</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>60</v>
+      <c r="C15" s="13" t="s">
+        <v>66</v>
       </c>
-      <c r="G13" s="12" t="s">
+    </row>
+    <row r="16">
+      <c r="D16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>64</v>
+      <c r="F16" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
-        <v>45</v>
+      <c r="B17" s="9" t="s">
+        <v>56</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>66</v>
+    </row>
+    <row r="18">
+      <c r="D18" s="5" t="s">
+        <v>42</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="D18" s="14" t="s">
-        <v>19</v>
+      <c r="E18" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>67</v>
+      <c r="F18" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="G18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="D21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="F20" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="D23" s="14" t="s">
-        <v>19</v>
+      <c r="G20" s="12" t="s">
+        <v>55</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>51</v>
+      <c r="J20" s="10" t="s">
+        <v>26</v>
       </c>
-      <c r="F23" s="4" t="s">
+    </row>
+    <row r="21">
+      <c r="B21" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G22" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>25</v>
+      <c r="F24" s="5" t="s">
+        <v>75</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="8" t="s">
-        <v>54</v>
+      <c r="G24" s="12" t="s">
+        <v>55</v>
       </c>
+      <c r="J24" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="25">
-      <c r="D25" s="4" t="s">
-        <v>33</v>
+      <c r="B25" s="9" t="s">
+        <v>56</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="17" t="s">
-        <v>73</v>
+    </row>
+    <row r="26">
+      <c r="D26" s="5" t="s">
+        <v>42</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>35</v>
+      <c r="E26" s="5" t="s">
+        <v>43</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="D26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>74</v>
+      <c r="F26" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27">
-      <c r="B27" s="7" t="s">
-        <v>45</v>
+      <c r="B27" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="D28" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>25</v>
+      <c r="F32" s="5" t="s">
+        <v>88</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="8" t="s">
-        <v>54</v>
+      <c r="G32" s="12" t="s">
+        <v>55</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="D30" s="4" t="s">
-        <v>33</v>
+      <c r="J32" s="10" t="s">
+        <v>26</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
-        <v>78</v>
+    </row>
+    <row r="33">
+      <c r="B33" s="9" t="s">
+        <v>56</v>
       </c>
-      <c r="J30" s="7" t="s">
-        <v>35</v>
+    </row>
+    <row r="34">
+      <c r="D34" s="5" t="s">
+        <v>42</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="D31" s="4" t="s">
-        <v>39</v>
+      <c r="E34" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>40</v>
+      <c r="F34" s="5" t="s">
+        <v>89</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>79</v>
+      <c r="G34" s="5" t="s">
+        <v>90</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>80</v>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="6" t="s">
+        <v>47</v>
       </c>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="7" t="s">
-        <v>45</v>
+      <c r="C35" s="13" t="s">
+        <v>91</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>82</v>
+    </row>
+    <row r="36">
+      <c r="D36" s="14" t="s">
+        <v>22</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="D33" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="12" t="s">
+      <c r="E36" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="8"/>
-      <c r="D35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>85</v>
+      <c r="F36" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
-      <c r="J36" s="7"/>
+      <c r="J36" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="37">
-      <c r="B37" s="7" t="s">
-        <v>45</v>
+      <c r="B37" s="9" t="s">
+        <v>56</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>86</v>
+    </row>
+    <row r="38">
+      <c r="D38" s="5" t="s">
+        <v>42</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="D38" s="14" t="s">
-        <v>19</v>
+      <c r="E38" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>51</v>
+      <c r="F38" s="5" t="s">
+        <v>94</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>87</v>
+      <c r="G38" s="5" t="s">
+        <v>95</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="D40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="D41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="D43" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="D45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
+      <c r="F40" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>35</v>
+      <c r="G40" s="12" t="s">
+        <v>55</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="D46" s="4" t="s">
-        <v>39</v>
+      <c r="J40" s="10" t="s">
+        <v>26</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>40</v>
+    </row>
+    <row r="41">
+      <c r="B41" s="9" t="s">
+        <v>56</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="13" t="s">
+    </row>
+    <row r="42">
+      <c r="B42" s="5" t="s">
         <v>101</v>
       </c>
+      <c r="D42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="12"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="6"/>
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="12"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48">
-      <c r="D48" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="D48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
     </row>
     <row r="49">
-      <c r="B49" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="12"/>
+      <c r="J49" s="6"/>
     </row>
     <row r="50">
-      <c r="D50" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="13"/>
     </row>
     <row r="51">
-      <c r="B51" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="12"/>
+      <c r="J51" s="6"/>
     </row>
     <row r="52">
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="12"/>
-      <c r="J52" s="7"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53">
-      <c r="B53" s="7"/>
-      <c r="C53" s="13"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54">
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="12"/>
-      <c r="J54" s="7"/>
+      <c r="D54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
     </row>
     <row r="55">
-      <c r="B55" s="8"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="12"/>
+      <c r="J55" s="6"/>
     </row>
     <row r="56">
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="13"/>
     </row>
     <row r="57">
-      <c r="D57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="12"/>
+      <c r="J57" s="6"/>
     </row>
     <row r="58">
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="12"/>
-      <c r="J58" s="7"/>
+      <c r="B58" s="9"/>
     </row>
     <row r="59">
-      <c r="B59" s="7"/>
-      <c r="C59" s="13"/>
-    </row>
-    <row r="60">
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="12"/>
-      <c r="J60" s="7"/>
-    </row>
-    <row r="61">
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62">
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63">
-      <c r="D63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64">
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="12"/>
-      <c r="J64" s="7"/>
-    </row>
-    <row r="65">
-      <c r="B65" s="7"/>
-      <c r="C65" s="13"/>
-    </row>
-    <row r="66">
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="12"/>
-      <c r="J66" s="7"/>
-    </row>
-    <row r="67">
-      <c r="B67" s="8"/>
-    </row>
-    <row r="68">
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="991">
-      <c r="D991" s="4"/>
-      <c r="F991" s="4"/>
-      <c r="G991" s="4"/>
-    </row>
-    <row r="992">
-      <c r="D992" s="4"/>
-      <c r="E992" s="4"/>
-      <c r="F992" s="4"/>
-      <c r="G992" s="12"/>
-      <c r="J992" s="7"/>
-    </row>
-    <row r="993">
-      <c r="B993" s="7"/>
-      <c r="C993" s="13"/>
-    </row>
-    <row r="994">
-      <c r="D994" s="14"/>
-      <c r="E994" s="14"/>
-      <c r="F994" s="4"/>
-      <c r="G994" s="12"/>
-      <c r="J994" s="7"/>
-    </row>
-    <row r="995">
-      <c r="B995" s="8"/>
-    </row>
-    <row r="996">
-      <c r="D996" s="4"/>
-      <c r="E996" s="4"/>
-      <c r="F996" s="4"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="982">
+      <c r="D982" s="5"/>
+      <c r="F982" s="5"/>
+      <c r="G982" s="5"/>
+    </row>
+    <row r="983">
+      <c r="D983" s="5"/>
+      <c r="E983" s="5"/>
+      <c r="F983" s="5"/>
+      <c r="G983" s="12"/>
+      <c r="J983" s="6"/>
+    </row>
+    <row r="984">
+      <c r="B984" s="6"/>
+      <c r="C984" s="13"/>
+    </row>
+    <row r="985">
+      <c r="D985" s="14"/>
+      <c r="E985" s="14"/>
+      <c r="F985" s="5"/>
+      <c r="G985" s="12"/>
+      <c r="J985" s="6"/>
+    </row>
+    <row r="986">
+      <c r="B986" s="9"/>
+    </row>
+    <row r="987">
+      <c r="D987" s="5"/>
+      <c r="E987" s="5"/>
+      <c r="F987" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1325,439 +1232,439 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
+      <c r="A7" s="7" t="s">
+        <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
+      <c r="A9" s="7" t="s">
+        <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
+      <c r="A10" s="7" t="s">
+        <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>16</v>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>44</v>
+      <c r="C13" s="4" t="s">
+        <v>50</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
+      <c r="A14" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>51</v>
+      <c r="A15" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B15" s="15">
         <v>1.0</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>51</v>
+      <c r="A16" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B16" s="15">
         <v>2.0</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>51</v>
+      <c r="A17" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B17" s="15">
         <v>3.0</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1777,58 +1684,58 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>81</v>
+      <c r="A1" s="17" t="s">
+        <v>80</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>89</v>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>90</v>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>91</v>
+      <c r="A2" s="4" t="s">
+        <v>84</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>93</v>
+      <c r="B2" s="7" t="s">
+        <v>85</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
+      <c r="A3" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B3" s="19">
         <v>2.0160901001E10</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="B4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>104</v>
+      <c r="A5" s="4" t="s">
+        <v>97</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
-        <v>105</v>
+      <c r="B5" s="3"/>
+      <c r="C5" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>106</v>
+      <c r="A6" s="5" t="s">
+        <v>100</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1849,10 +1756,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -1881,10 +1788,10 @@
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>33</v>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -1913,10 +1820,10 @@
     </row>
     <row r="3">
       <c r="A3" s="23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -1945,10 +1852,10 @@
     </row>
     <row r="4">
       <c r="A4" s="23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -1977,10 +1884,10 @@
     </row>
     <row r="5">
       <c r="A5" s="23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -2009,10 +1916,10 @@
     </row>
     <row r="6">
       <c r="A6" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -2041,10 +1948,10 @@
     </row>
     <row r="7">
       <c r="A7" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -2073,10 +1980,10 @@
     </row>
     <row r="8">
       <c r="A8" s="23" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -2105,10 +2012,10 @@
     </row>
     <row r="9">
       <c r="A9" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -2137,10 +2044,10 @@
     </row>
     <row r="10">
       <c r="A10" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -2169,10 +2076,10 @@
     </row>
     <row r="11">
       <c r="A11" s="23" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -2201,10 +2108,10 @@
     </row>
     <row r="12">
       <c r="A12" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -2236,7 +2143,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -2265,10 +2172,10 @@
     </row>
     <row r="14">
       <c r="A14" s="23" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -2297,10 +2204,10 @@
     </row>
     <row r="15">
       <c r="A15" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -2329,10 +2236,10 @@
     </row>
     <row r="16">
       <c r="A16" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -2361,10 +2268,10 @@
     </row>
     <row r="17">
       <c r="A17" s="23" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -2393,10 +2300,10 @@
     </row>
     <row r="18">
       <c r="A18" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -2425,10 +2332,10 @@
     </row>
     <row r="19">
       <c r="A19" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -2457,10 +2364,10 @@
     </row>
     <row r="20">
       <c r="A20" s="23" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -2489,10 +2396,10 @@
     </row>
     <row r="21">
       <c r="A21" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -2521,10 +2428,10 @@
     </row>
     <row r="22">
       <c r="A22" s="23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -2553,10 +2460,10 @@
     </row>
     <row r="23">
       <c r="A23" s="23" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -2585,10 +2492,10 @@
     </row>
     <row r="24">
       <c r="A24" s="23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -2617,10 +2524,10 @@
     </row>
     <row r="25">
       <c r="A25" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -2649,10 +2556,10 @@
     </row>
     <row r="26">
       <c r="A26" s="23" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -2681,10 +2588,10 @@
     </row>
     <row r="27">
       <c r="A27" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -2713,10 +2620,10 @@
     </row>
     <row r="28">
       <c r="A28" s="23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -2745,10 +2652,10 @@
     </row>
     <row r="29">
       <c r="A29" s="23" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -2777,10 +2684,10 @@
     </row>
     <row r="30">
       <c r="A30" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
@@ -2809,10 +2716,10 @@
     </row>
     <row r="31">
       <c r="A31" s="23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -2841,10 +2748,10 @@
     </row>
     <row r="32">
       <c r="A32" s="23" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
